--- a/biology/Zoologie/Gettyia/Gettyia.xlsx
+++ b/biology/Zoologie/Gettyia/Gettyia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gettyia gloriae
 Gettyia est un genre éteint d'oiseaux préhistoriques à dents de la famille des Avisauridae, qui a vécu à la fin du Crétacé supérieur en Amérique du Nord.
-Une seule espèce est rattachée au genre, Gettyia gloriae. Sa description a été publiée en 2018 par Jessie Atterholt (d) et son équipe[1].
+Une seule espèce est rattachée au genre, Gettyia gloriae. Sa description a été publiée en 2018 par Jessie Atterholt (d) et son équipe.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom binominal Gettyia gloriae honore deux paléontologues, Mike Getty et Gloria Siebrecht (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom binominal Gettyia gloriae honore deux paléontologues, Mike Getty et Gloria Siebrecht (d).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'abord décrit sous le nom d'Avisaurus gloriae Varrichio et Chiappe, 1995, il a été découvert dans la partie supérieure de la formation de Two Medicine dans comté de Glacier dans le Montana aux États-Unis, un niveau stratigraphique daté du Campanien supérieur, il y a environ 75 Ma (millions d'années)[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord décrit sous le nom d'Avisaurus gloriae Varrichio et Chiappe, 1995, il a été découvert dans la partie supérieure de la formation de Two Medicine dans comté de Glacier dans le Montana aux États-Unis, un niveau stratigraphique daté du Campanien supérieur, il y a environ 75 Ma (millions d'années). 
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été décrit à partir d'un seul tarsométatarse, référencé MOR 553E/6.19.91.64, un os homologue du tarse (cheville) et du métatarse (pied) des mammifères, fréquemment conservé sous forme fossile chez les oiseaux. 
-C'est un oiseau de taille modeste comme le montre la longueur de son tarsométatarse de 3,1 centimètres, à comparer avec les 7,4 centimètres d'Avisaurus et les 4,8 centimètres de Mirarce, les deux genres nord-américains qui lui sont proches&lt;[2],[1]. 
-Cette espèce a été retirée du genre Avisaurus en 2018 et attribuée à un nouveau genre sous le taxon Gettyia gloriae[1].
+C'est un oiseau de taille modeste comme le montre la longueur de son tarsométatarse de 3,1 centimètres, à comparer avec les 7,4 centimètres d'Avisaurus et les 4,8 centimètres de Mirarce, les deux genres nord-américains qui lui sont proches&lt;,. 
+Cette espèce a été retirée du genre Avisaurus en 2018 et attribuée à un nouveau genre sous le taxon Gettyia gloriae.
 </t>
         </is>
       </c>
@@ -608,12 +626,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jessie Atterholt (d) et son équipe érigent le genre Gettyia pour abriter l'espèce décrite sous le taxon Avisaurus gloriae en 2018[1].
-Il rejoint dans la famille des Avisauridae : Soroavisaurus (Chiappe, 1993) ; Neuquenornis (Chiappe &amp; Calvo, 1994) ; Intiornis (Novas, Agnolín &amp; Scanferla, 2010) ; Mirarce Atterholt et al., 2018 et Avisaurus (Brett-Surman et Paul, 1985), ce dernier genre n’incluant plus qu'une seule espèce Avisaurus archibaldi[1].
-Cladogramme
-L'analyse phylogénétique réalisée par les inventeurs du genre le place en groupe frère de Mirarce eatoni, et proche d'Avisaurus archibaldi, comme le montre leur cladogramme ci-dessous ; il souligne également la dichotomie entre les genres sud-américains en haut, et les nord-américains en bas[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jessie Atterholt (d) et son équipe érigent le genre Gettyia pour abriter l'espèce décrite sous le taxon Avisaurus gloriae en 2018.
+Il rejoint dans la famille des Avisauridae : Soroavisaurus (Chiappe, 1993) ; Neuquenornis (Chiappe &amp; Calvo, 1994) ; Intiornis (Novas, Agnolín &amp; Scanferla, 2010) ; Mirarce Atterholt et al., 2018 et Avisaurus (Brett-Surman et Paul, 1985), ce dernier genre n’incluant plus qu'une seule espèce Avisaurus archibaldi.
 </t>
         </is>
       </c>
@@ -639,10 +657,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique réalisée par les inventeurs du genre le place en groupe frère de Mirarce eatoni, et proche d'Avisaurus archibaldi, comme le montre leur cladogramme ci-dessous ; il souligne également la dichotomie entre les genres sud-américains en haut, et les nord-américains en bas :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gettyia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gettyia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Jessie Atterholt, J. Howard Hutchison et Jingmai Kathleen O'Connor, « The most complete enantiornithine from North America and a phylogenetic analysis of the Avisauridae », PeerJ, PeerJ Publishing (d), vol. 6,‎ 2018, e5910 (ISSN 2167-8359, OCLC 793828439, PMID 30479894, PMCID 6238772, DOI 10.7717/PEERJ.5910, lire en ligne)</t>
         </is>
